--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983596.701741405</v>
+        <v>2080266.678225779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>291.9336040031819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>125.5591100822753</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>78.3162925372537</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>196.532178090775</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>323.6929566097325</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>110.9272034736103</v>
       </c>
       <c r="X7" t="n">
-        <v>196.7218456862863</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>138.3295234829028</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>61.63425920309719</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.83743093372772</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>34.10050473850163</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>30.27693440363763</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>31.73725475703721</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>3.16628186976638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>152.3296141367685</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>106.3517148981611</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>23.80546641123187</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>6.38006817584793</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>36.02766158664638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20.39144477969133</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.601081015447265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>6.61030329837386</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>35.19569619650073</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.61945624169898</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>43.75688320100021</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>36.15999212057531</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>6.380068175847634</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.67037196991714</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>925.928893807665</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>507.9650857058518</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>180.7703657418547</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.435818966735</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>290.7987205870805</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.597857825387</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1035.635340884975</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>677.3696422782245</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>677.3696422782245</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>266.383737488617</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>252.4603334272079</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5386780278486</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>466.3758425937212</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691492</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5020,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5036,49 +5038,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5291,25 +5293,25 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.309177553988</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
         <v>951.7264155301116</v>
@@ -5428,10 +5430,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.957642384228</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.957642384228</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>1163.957642384228</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5528,37 +5530,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,13 +5585,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1002.603792133599</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>833.6676092056922</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
         <v>506.8067350374723</v>
@@ -5665,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.252256963839</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y19" t="n">
-        <v>1184.252256963839</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5747,22 +5749,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5786,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3213.574689558379</v>
+        <v>3796.153667990894</v>
       </c>
       <c r="C22" t="n">
-        <v>3213.574689558379</v>
+        <v>3627.217485062987</v>
       </c>
       <c r="D22" t="n">
-        <v>3213.574689558379</v>
+        <v>3477.100845650651</v>
       </c>
       <c r="E22" t="n">
-        <v>3210.376425043463</v>
+        <v>3329.187752068258</v>
       </c>
       <c r="F22" t="n">
-        <v>3063.486477545553</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G22" t="n">
-        <v>3063.486477545553</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>4534.352968069402</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>4534.352968069402</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>4534.352968069402</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493357</v>
+        <v>4534.352968069402</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456396</v>
+        <v>4244.935798032441</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.574689558379</v>
+        <v>4016.946247134424</v>
       </c>
       <c r="Y22" t="n">
-        <v>3213.574689558379</v>
+        <v>3796.153667990894</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2439.038619608515</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6072,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>499.3208352874796</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C25" t="n">
-        <v>499.3208352874796</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D25" t="n">
-        <v>349.2041958751438</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E25" t="n">
-        <v>349.2041958751438</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F25" t="n">
-        <v>349.2041958751438</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>4091.801543878047</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>3837.11705567216</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>3547.699885635199</v>
       </c>
       <c r="X25" t="n">
-        <v>680.9693001177193</v>
+        <v>3319.710334737182</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.9693001177193</v>
+        <v>3098.917755593652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>3502.677556432736</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>3502.677556432736</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>3352.560917020401</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>3352.560917020401</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S28" t="n">
-        <v>1949.898952795766</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T28" t="n">
-        <v>1728.132337365293</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.029470490936</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="V28" t="n">
-        <v>1184.344982285049</v>
+        <v>4020.084277367714</v>
       </c>
       <c r="W28" t="n">
-        <v>894.9278122480885</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="X28" t="n">
-        <v>666.9382613500711</v>
+        <v>3502.677556432736</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.145682206541</v>
+        <v>3502.677556432736</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,22 +6469,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>278.8425593065537</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.04840091569</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.04840091569</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.04840091569</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>116.1584534177796</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6649,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X31" t="n">
-        <v>681.2836032803235</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.4910241367934</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6704,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.647446689875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9417306852383</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>1355.329223394797</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>1127.33967249678</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154781</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686767</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522031</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1009.141030763746</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>840.2048478358396</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D37" t="n">
-        <v>690.0882084235038</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="E37" t="n">
-        <v>542.1751148411107</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>395.2851673432003</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1190.789495593986</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>1190.789495593986</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7172,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7360,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7399,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,25 +7414,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,10 +7490,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>3122.730718257556</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>2953.794535329649</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>2953.794535329649</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>2953.794535329649</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>2953.794535329649</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>4297.26297137219</v>
       </c>
       <c r="V43" t="n">
-        <v>1866.513008862232</v>
+        <v>4042.578483166303</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>3753.161313129342</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>3525.171762231325</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>3304.379183087795</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>270.9417306852383</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C46" t="n">
-        <v>102.0055477573314</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0055477573314</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E46" t="n">
-        <v>102.0055477573314</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F46" t="n">
-        <v>102.0055477573314</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7834,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>673.3827746590082</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.5901955154781</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9017284501172</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>295.4822118493984</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10126,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>104.3976710547475</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>104.3976710547477</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570114</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>258.6211785616921</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>53.7364564735463</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>67.91322356906841</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>116.8782182611751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>143.2676807768028</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>37.43941119467343</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>59.67409336086715</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>121.6155816116994</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.388957155594</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>131.2191595119814</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>145.6343634793369</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>159.6457400831806</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>211.9743500537209</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>111.2382664500684</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.4063520173293</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>181.9527721880369</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>129.8658161384529</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.6457400831806</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992095</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079785</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079785</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079785</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26316,46 @@
         <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417769</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="G2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="J2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="J2" t="n">
-        <v>555914.5016417766</v>
-      </c>
       <c r="K2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="M2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="N2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="O2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="P2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26522,46 +26524,46 @@
         <v>-299162.2243006863</v>
       </c>
       <c r="C6" t="n">
-        <v>290805.6549138577</v>
+        <v>290805.6549138582</v>
       </c>
       <c r="D6" t="n">
-        <v>290805.6549138577</v>
+        <v>290805.6549138576</v>
       </c>
       <c r="E6" t="n">
-        <v>-292937.1542803376</v>
+        <v>-292937.1542803374</v>
       </c>
       <c r="F6" t="n">
-        <v>434440.2597130694</v>
+        <v>434440.2597130691</v>
       </c>
       <c r="G6" t="n">
+        <v>434440.259713069</v>
+      </c>
+      <c r="H6" t="n">
+        <v>434440.259713069</v>
+      </c>
+      <c r="I6" t="n">
+        <v>434440.2597130688</v>
+      </c>
+      <c r="J6" t="n">
+        <v>258017.0405204761</v>
+      </c>
+      <c r="K6" t="n">
+        <v>434440.2597130689</v>
+      </c>
+      <c r="L6" t="n">
+        <v>434440.259713069</v>
+      </c>
+      <c r="M6" t="n">
+        <v>304797.9448741244</v>
+      </c>
+      <c r="N6" t="n">
+        <v>434440.2597130692</v>
+      </c>
+      <c r="O6" t="n">
         <v>434440.2597130691</v>
       </c>
-      <c r="H6" t="n">
-        <v>434440.2597130693</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>434440.2597130691</v>
-      </c>
-      <c r="J6" t="n">
-        <v>258017.0405204762</v>
-      </c>
-      <c r="K6" t="n">
-        <v>434440.2597130692</v>
-      </c>
-      <c r="L6" t="n">
-        <v>434440.2597130691</v>
-      </c>
-      <c r="M6" t="n">
-        <v>304797.9448741245</v>
-      </c>
-      <c r="N6" t="n">
-        <v>434440.2597130691</v>
-      </c>
-      <c r="O6" t="n">
-        <v>434440.259713069</v>
-      </c>
-      <c r="P6" t="n">
-        <v>434440.259713069</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.80023766029865</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.37220616258594</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>67.10475548567754</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>127.3905946735821</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>25.54801210768051</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>175.5957948629807</v>
       </c>
       <c r="X7" t="n">
-        <v>28.98780970275089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>226.9433682881048</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>308.0968414753718</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7780420844846</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>252.1813695034761</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -31856,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32324,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35504,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35659,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282437</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35896,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36121,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36358,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>796.8228442803439</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>694.2441980687703</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36835,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,16 +36846,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>503.1596572741194</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>559.9877854470799</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493436</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499112</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
